--- a/Documents/bulk/teachers.xlsx
+++ b/Documents/bulk/teachers.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RUPD\Documents\bulk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC38B1-8F7F-4C04-8203-936CA14EFF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="4980" yWindow="555" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Преподаватели" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="194">
   <si>
     <t>Фамилия*</t>
   </si>
@@ -566,53 +572,50 @@
     <t>ведущий научный сотрудник</t>
   </si>
   <si>
-    <t>д-р техн. наук</t>
-  </si>
-  <si>
     <t>канд. физ.-мат. наук</t>
   </si>
   <si>
-    <t>канд. техн. наук</t>
-  </si>
-  <si>
-    <t>канд. ист. наук</t>
-  </si>
-  <si>
-    <t>канд. искусствоведения</t>
-  </si>
-  <si>
-    <t>канд. пед. наук</t>
-  </si>
-  <si>
-    <t>канд. пед. наук.</t>
-  </si>
-  <si>
-    <t>канд. геогр. наук</t>
-  </si>
-  <si>
-    <t>канд. экон. наук</t>
-  </si>
-  <si>
-    <t>д-р ист. наук</t>
-  </si>
-  <si>
-    <t>канд. филос. наук</t>
-  </si>
-  <si>
-    <t>д-р социол. наук</t>
-  </si>
-  <si>
-    <t>д-р филос. наук</t>
-  </si>
-  <si>
-    <t>канд. юрид. наук</t>
+    <t>д-р техн.</t>
+  </si>
+  <si>
+    <t>канд. техн</t>
+  </si>
+  <si>
+    <t>канд. ист.</t>
+  </si>
+  <si>
+    <t>канд. иску</t>
+  </si>
+  <si>
+    <t>д-р социол</t>
+  </si>
+  <si>
+    <t>д-р ист. н</t>
+  </si>
+  <si>
+    <t>канд. фило</t>
+  </si>
+  <si>
+    <t>канд. пед.</t>
+  </si>
+  <si>
+    <t>канд. юрид</t>
+  </si>
+  <si>
+    <t>д-р филос.</t>
+  </si>
+  <si>
+    <t>канд. геог</t>
+  </si>
+  <si>
+    <t>канд. экон</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -643,6 +646,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -678,12 +688,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -851,9 +862,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,6 +914,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1060,14 +1107,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
@@ -1083,7 +1130,7 @@
     <col min="1026" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1126,18 +1173,18 @@
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1159,11 +1206,11 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1179,13 +1226,13 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1202,16 +1249,16 @@
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1228,16 +1275,16 @@
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1253,11 +1300,11 @@
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1279,11 +1326,11 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
@@ -1306,7 +1353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1332,7 +1379,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1349,7 +1396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1366,13 +1413,13 @@
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1395,7 +1442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1421,7 +1468,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
@@ -1438,13 +1485,13 @@
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -1467,7 +1514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -1487,7 +1534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
@@ -1504,7 +1551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
@@ -1521,7 +1568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -1541,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -1558,7 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -1575,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
@@ -1592,7 +1639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -1609,7 +1656,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>83</v>
       </c>
@@ -1626,7 +1673,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
@@ -1643,7 +1690,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>88</v>
       </c>
@@ -1660,7 +1707,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
@@ -1677,13 +1724,13 @@
         <v>18</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -1700,13 +1747,13 @@
         <v>18</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -1723,13 +1770,13 @@
         <v>18</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
@@ -1746,13 +1793,13 @@
         <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>106</v>
       </c>
@@ -1769,13 +1816,13 @@
         <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>108</v>
       </c>
@@ -1792,13 +1839,13 @@
         <v>19</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -1815,13 +1862,13 @@
         <v>19</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -1838,13 +1885,13 @@
         <v>19</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -1867,7 +1914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
@@ -1884,13 +1931,13 @@
         <v>19</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
@@ -1907,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>119</v>
       </c>
@@ -1924,7 +1971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>120</v>
       </c>
@@ -1941,7 +1988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -1958,7 +2005,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -1975,7 +2022,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -1992,13 +2039,13 @@
         <v>19</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>127</v>
       </c>
@@ -2015,13 +2062,13 @@
         <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>130</v>
       </c>
@@ -2038,13 +2085,13 @@
         <v>18</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>132</v>
       </c>
@@ -2067,7 +2114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>134</v>
       </c>
@@ -2083,14 +2130,14 @@
       <c r="E47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>188</v>
+      <c r="F47" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>137</v>
       </c>
@@ -2106,14 +2153,14 @@
       <c r="E48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>189</v>
+      <c r="F48" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>138</v>
       </c>
@@ -2136,7 +2183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>139</v>
       </c>
@@ -2159,7 +2206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>141</v>
       </c>
@@ -2182,7 +2229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>143</v>
       </c>
@@ -2205,7 +2252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>144</v>
       </c>
@@ -2222,13 +2269,13 @@
         <v>19</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>145</v>
       </c>
@@ -2245,13 +2292,13 @@
         <v>19</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>147</v>
       </c>
@@ -2265,13 +2312,13 @@
         <v>166</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2288,7 +2335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>152</v>
       </c>
@@ -2305,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>154</v>
       </c>
@@ -2322,7 +2369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>155</v>
       </c>
@@ -2339,7 +2386,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>156</v>
       </c>
@@ -2356,7 +2403,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>157</v>
       </c>
@@ -2373,7 +2420,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>160</v>
       </c>
@@ -2390,7 +2437,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>164</v>
       </c>
@@ -2407,7 +2454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>167</v>
       </c>
@@ -2424,13 +2471,13 @@
         <v>19</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>169</v>
       </c>
@@ -2447,13 +2494,13 @@
         <v>19</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>172</v>
       </c>
@@ -2470,7 +2517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>175</v>
       </c>
@@ -2487,7 +2534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>177</v>
       </c>
@@ -2504,7 +2551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>178</v>
       </c>
@@ -2518,7 +2565,7 @@
         <v>179</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>9</v>
@@ -2530,14 +2577,14 @@
     <mergeCell ref="H4:J8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D12" r:id="rId6"/>
-    <hyperlink ref="D13" r:id="rId7"/>
-    <hyperlink ref="D14" r:id="rId8"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
